--- a/MyGit Commit Rules.xlsx
+++ b/MyGit Commit Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\latihan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3ECF18-EF46-4873-B2E7-4791BADD2A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D0F0A-10E7-4C83-8C04-3C5543BE6A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD00E92A-59A6-4D1B-A796-09D1FD0E3059}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Rules git commit</t>
   </si>
@@ -48,16 +48,13 @@
     <t>Jenis Commit</t>
   </si>
   <si>
-    <t>1. Modifikasi Tambah : 'Nama_file' @ ../NamaFolder/ -&gt; 'Menambahkan fungsi …'</t>
-  </si>
-  <si>
-    <t>2. Modifikasi Hapus : 'Nama_file' @ ../NamaFolder/ -&gt; 'Menghapus baris fungsi ...'</t>
-  </si>
-  <si>
-    <t>Hapus File : 'Nama_file' @ ../NamaFolder/</t>
-  </si>
-  <si>
-    <t>File Baru : 'Nama_file' @ ../NamaFolder/ -&gt; untuk fungsi Nama_fungsi</t>
+    <t>File Baru : 'namaFolder[namaFile] -&gt; deskripsi'</t>
+  </si>
+  <si>
+    <t>1. Modifikasi : 'namaFolder[namaFile] -&gt; deskripsi'</t>
+  </si>
+  <si>
+    <t>Hapus File : 'namaFolder[namaFile] -&gt; deskripsi'</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,24 +128,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -163,13 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2FEF37-77EC-4D22-A459-0B44F9321EA0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -523,43 +501,32 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
